--- a/generated-tests/firebrigade/frontend/interactive/metrics.xlsx
+++ b/generated-tests/firebrigade/frontend/interactive/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\frontend\interactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02AD591-6344-4698-8DDC-F825289C89EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B74536F-D8F3-41C9-B14E-E8081521AE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Test</t>
   </si>
@@ -72,6 +72,45 @@
   </si>
   <si>
     <t>Bugs/Smells</t>
+  </si>
+  <si>
+    <t>create-view-deployment-1.spec</t>
+  </si>
+  <si>
+    <t>add-deployment</t>
+  </si>
+  <si>
+    <t>deployment</t>
+  </si>
+  <si>
+    <t>overview</t>
+  </si>
+  <si>
+    <t>create-view-deployment-2.spec</t>
+  </si>
+  <si>
+    <t>overview-1.spec</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>overview-2.spec</t>
+  </si>
+  <si>
+    <t>blackboard-calendar-member-1.spec</t>
+  </si>
+  <si>
+    <t>black-board-and-calendar</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>blackboard-calendar-member-2.spec</t>
   </si>
 </sst>
 </file>
@@ -677,7 +716,7 @@
   <dimension ref="D5:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +784,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="26"/>
@@ -789,7 +828,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="26"/>
@@ -814,179 +853,345 @@
       <c r="L10" s="26"/>
     </row>
     <row r="11" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D11" s="9"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="D11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="21">
+        <v>72</v>
+      </c>
+      <c r="G11" s="2">
+        <v>62</v>
+      </c>
+      <c r="H11" s="22">
+        <v>73</v>
+      </c>
+      <c r="I11" s="6">
+        <v>3</v>
+      </c>
+      <c r="J11" s="6">
+        <v>10</v>
+      </c>
+      <c r="K11" s="6"/>
       <c r="L11" s="26"/>
     </row>
     <row r="12" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D12" s="9"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="E12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="18">
+        <v>49</v>
+      </c>
+      <c r="G12" s="19">
+        <v>35</v>
+      </c>
+      <c r="H12" s="20">
+        <v>47</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="26"/>
     </row>
     <row r="13" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D13" s="9"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="23">
+        <v>82</v>
+      </c>
+      <c r="G13" s="3">
+        <v>57</v>
+      </c>
+      <c r="H13" s="24">
+        <v>75</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="26"/>
     </row>
     <row r="14" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D14" s="9"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="D14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="21">
+        <v>72</v>
+      </c>
+      <c r="G14" s="2">
+        <v>62</v>
+      </c>
+      <c r="H14" s="22">
+        <v>73</v>
+      </c>
+      <c r="I14" s="6">
+        <v>3</v>
+      </c>
+      <c r="J14" s="6">
+        <v>8</v>
+      </c>
+      <c r="K14" s="6"/>
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D15" s="9"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+      <c r="E15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="18">
+        <v>49</v>
+      </c>
+      <c r="G15" s="19">
+        <v>35</v>
+      </c>
+      <c r="H15" s="20">
+        <v>47</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="26"/>
     </row>
     <row r="16" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D16" s="9"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="23">
+        <v>83</v>
+      </c>
+      <c r="G16" s="3">
+        <v>57</v>
+      </c>
+      <c r="H16" s="24">
+        <v>74</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="26"/>
     </row>
     <row r="17" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D17" s="9"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="D17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="21">
+        <v>79</v>
+      </c>
+      <c r="G17" s="2">
+        <v>50</v>
+      </c>
+      <c r="H17" s="22">
+        <v>71</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>3</v>
+      </c>
+      <c r="K17" s="6"/>
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D18" s="9"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
+      <c r="E18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="18">
+        <v>83</v>
+      </c>
+      <c r="G18" s="19">
+        <v>60</v>
+      </c>
+      <c r="H18" s="20">
+        <v>70</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D19" s="9"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="23">
+        <v>82</v>
+      </c>
+      <c r="G19" s="3">
+        <v>70</v>
+      </c>
+      <c r="H19" s="24">
+        <v>74</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="26"/>
     </row>
     <row r="20" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D20" s="9"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="D20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="21">
+        <v>82</v>
+      </c>
+      <c r="G20" s="2">
+        <v>57</v>
+      </c>
+      <c r="H20" s="22">
+        <v>75</v>
+      </c>
+      <c r="I20" s="6">
+        <v>5</v>
+      </c>
+      <c r="J20" s="6">
+        <v>10</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
       <c r="L20" s="26"/>
     </row>
     <row r="21" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D21" s="9"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
+      <c r="E21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="18">
+        <v>92</v>
+      </c>
+      <c r="G21" s="19">
+        <v>70</v>
+      </c>
+      <c r="H21" s="20">
+        <v>89</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="26"/>
     </row>
     <row r="22" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D22" s="9"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="23">
+        <v>82</v>
+      </c>
+      <c r="G22" s="3">
+        <v>70</v>
+      </c>
+      <c r="H22" s="24">
+        <v>74</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="26"/>
     </row>
     <row r="23" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D23" s="9"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="D23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="21">
+        <v>81</v>
+      </c>
+      <c r="G23" s="2">
+        <v>59</v>
+      </c>
+      <c r="H23" s="22">
+        <v>82</v>
+      </c>
+      <c r="I23" s="6">
+        <v>13</v>
+      </c>
+      <c r="J23" s="6">
+        <v>32</v>
+      </c>
+      <c r="K23" s="6"/>
       <c r="L23" s="26"/>
     </row>
     <row r="24" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D24" s="9"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="23">
+        <v>57</v>
+      </c>
+      <c r="G24" s="3">
+        <v>50</v>
+      </c>
+      <c r="H24" s="24">
+        <v>57</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="26"/>
     </row>
     <row r="25" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D25" s="9"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="D25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="21">
+        <v>85</v>
+      </c>
+      <c r="G25" s="2">
+        <v>59</v>
+      </c>
+      <c r="H25" s="22">
+        <v>85</v>
+      </c>
+      <c r="I25" s="6">
+        <v>7</v>
+      </c>
+      <c r="J25" s="6">
+        <v>26</v>
+      </c>
+      <c r="K25" s="6"/>
       <c r="L25" s="26"/>
     </row>
     <row r="26" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D26" s="9"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="23">
+        <v>64</v>
+      </c>
+      <c r="G26" s="3">
+        <v>58</v>
+      </c>
+      <c r="H26" s="24">
+        <v>63</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="26"/>
     </row>
     <row r="27" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">

--- a/generated-tests/firebrigade/frontend/interactive/metrics.xlsx
+++ b/generated-tests/firebrigade/frontend/interactive/metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\frontend\interactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B74536F-D8F3-41C9-B14E-E8081521AE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A5E1D0-8991-441C-A0D0-5C53B04B7BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Test</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>blackboard-calendar-member-2.spec</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>Durchschnitt</t>
   </si>
 </sst>
 </file>
@@ -141,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +178,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -342,11 +354,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -372,8 +436,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -713,20 +785,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
-  <dimension ref="D5:L32"/>
+  <dimension ref="C3:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="12" width="15.7109375" customWidth="1"/>
+    <col min="6" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="31"/>
       <c r="D5" s="8" t="s">
         <v>0</v>
       </c>
@@ -751,9 +830,18 @@
       <c r="K5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="25"/>
-    </row>
-    <row r="6" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="31"/>
       <c r="D6" s="9"/>
       <c r="E6" s="13"/>
       <c r="F6" s="18"/>
@@ -762,9 +850,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L6" s="18"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="31"/>
       <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
@@ -787,9 +878,21 @@
         <v>11</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L7" s="21">
+        <f>ROUND(AVERAGE(F7:F8),0)</f>
+        <v>67</v>
+      </c>
+      <c r="M7" s="2">
+        <f>ROUND(AVERAGE(G7:G8),0)</f>
+        <v>58</v>
+      </c>
+      <c r="N7" s="22">
+        <f>ROUND(AVERAGE(H7:H8),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="31"/>
       <c r="D8" s="11"/>
       <c r="E8" s="15" t="s">
         <v>6</v>
@@ -806,9 +909,12 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L8" s="23"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="31"/>
       <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
@@ -831,9 +937,21 @@
         <v>9</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L9" s="21">
+        <f>ROUND(AVERAGE(F9:F10),0)</f>
+        <v>67</v>
+      </c>
+      <c r="M9" s="2">
+        <f>ROUND(AVERAGE(G9:G10),0)</f>
+        <v>57</v>
+      </c>
+      <c r="N9" s="22">
+        <f>ROUND(AVERAGE(H9:H10),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="31"/>
       <c r="D10" s="11"/>
       <c r="E10" s="15" t="s">
         <v>6</v>
@@ -850,9 +968,12 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L10" s="23"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="31"/>
       <c r="D11" s="10" t="s">
         <v>12</v>
       </c>
@@ -875,9 +996,21 @@
         <v>10</v>
       </c>
       <c r="K11" s="6"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L11" s="21">
+        <f>ROUND(AVERAGE(F11:F13),0)</f>
+        <v>68</v>
+      </c>
+      <c r="M11" s="2">
+        <f>ROUND(AVERAGE(G11:G13),0)</f>
+        <v>51</v>
+      </c>
+      <c r="N11" s="22">
+        <f>ROUND(AVERAGE(H11:H13),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="31"/>
       <c r="D12" s="9"/>
       <c r="E12" s="13" t="s">
         <v>14</v>
@@ -894,9 +1027,12 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="26"/>
-    </row>
-    <row r="13" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="31"/>
       <c r="D13" s="11"/>
       <c r="E13" s="15" t="s">
         <v>15</v>
@@ -913,9 +1049,12 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L13" s="23"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="31"/>
       <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
@@ -938,9 +1077,21 @@
         <v>8</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L14" s="21">
+        <f>ROUND(AVERAGE(F14:F16),0)</f>
+        <v>68</v>
+      </c>
+      <c r="M14" s="2">
+        <f>ROUND(AVERAGE(G14:G16),0)</f>
+        <v>51</v>
+      </c>
+      <c r="N14" s="22">
+        <f>ROUND(AVERAGE(H14:H16),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="31"/>
       <c r="D15" s="9"/>
       <c r="E15" s="13" t="s">
         <v>14</v>
@@ -957,9 +1108,12 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="26"/>
-    </row>
-    <row r="16" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L15" s="18"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="20"/>
+    </row>
+    <row r="16" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="31"/>
       <c r="D16" s="11"/>
       <c r="E16" s="15" t="s">
         <v>15</v>
@@ -976,9 +1130,12 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="26"/>
-    </row>
-    <row r="17" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L16" s="23"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="31"/>
       <c r="D17" s="10" t="s">
         <v>17</v>
       </c>
@@ -1001,9 +1158,21 @@
         <v>3</v>
       </c>
       <c r="K17" s="6"/>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L17" s="21">
+        <f>ROUND(AVERAGE(F17:F19),0)</f>
+        <v>81</v>
+      </c>
+      <c r="M17" s="2">
+        <f>ROUND(AVERAGE(G17:G19),0)</f>
+        <v>60</v>
+      </c>
+      <c r="N17" s="22">
+        <f>ROUND(AVERAGE(H17:H19),0)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="31"/>
       <c r="D18" s="9"/>
       <c r="E18" s="13" t="s">
         <v>18</v>
@@ -1020,9 +1189,12 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L18" s="18"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="20"/>
+    </row>
+    <row r="19" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="31"/>
       <c r="D19" s="11"/>
       <c r="E19" s="15" t="s">
         <v>19</v>
@@ -1039,9 +1211,12 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L19" s="23"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="31"/>
       <c r="D20" s="10" t="s">
         <v>20</v>
       </c>
@@ -1066,9 +1241,21 @@
       <c r="K20" s="6">
         <v>1</v>
       </c>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L20" s="21">
+        <f>ROUND(AVERAGE(F20:F22),0)</f>
+        <v>85</v>
+      </c>
+      <c r="M20" s="2">
+        <f>ROUND(AVERAGE(G20:G22),0)</f>
+        <v>66</v>
+      </c>
+      <c r="N20" s="22">
+        <f>ROUND(AVERAGE(H20:H22),0)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="31"/>
       <c r="D21" s="9"/>
       <c r="E21" s="13" t="s">
         <v>18</v>
@@ -1085,9 +1272,12 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L21" s="18"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20"/>
+    </row>
+    <row r="22" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="31"/>
       <c r="D22" s="11"/>
       <c r="E22" s="15" t="s">
         <v>19</v>
@@ -1104,9 +1294,12 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="26"/>
-    </row>
-    <row r="23" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L22" s="23"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="31"/>
       <c r="D23" s="10" t="s">
         <v>21</v>
       </c>
@@ -1129,9 +1322,21 @@
         <v>32</v>
       </c>
       <c r="K23" s="6"/>
-      <c r="L23" s="26"/>
-    </row>
-    <row r="24" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L23" s="21">
+        <f>ROUND(AVERAGE(F23:F24),0)</f>
+        <v>69</v>
+      </c>
+      <c r="M23" s="2">
+        <f>ROUND(AVERAGE(G23:G24),0)</f>
+        <v>55</v>
+      </c>
+      <c r="N23" s="22">
+        <f>ROUND(AVERAGE(H23:H24),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="31"/>
       <c r="D24" s="11"/>
       <c r="E24" s="15" t="s">
         <v>23</v>
@@ -1148,9 +1353,12 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="26"/>
-    </row>
-    <row r="25" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L24" s="23"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="24"/>
+    </row>
+    <row r="25" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="31"/>
       <c r="D25" s="10" t="s">
         <v>24</v>
       </c>
@@ -1173,9 +1381,21 @@
         <v>26</v>
       </c>
       <c r="K25" s="6"/>
-      <c r="L25" s="26"/>
-    </row>
-    <row r="26" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L25" s="21">
+        <f>ROUND(AVERAGE(F25:F26),0)</f>
+        <v>75</v>
+      </c>
+      <c r="M25" s="2">
+        <f>ROUND(AVERAGE(G25:G26),0)</f>
+        <v>59</v>
+      </c>
+      <c r="N25" s="22">
+        <f>ROUND(AVERAGE(H25:H26),0)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="31"/>
       <c r="D26" s="11"/>
       <c r="E26" s="15" t="s">
         <v>23</v>
@@ -1192,9 +1412,12 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="26"/>
-    </row>
-    <row r="27" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L26" s="23"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="24"/>
+    </row>
+    <row r="27" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="31"/>
       <c r="D27" s="9"/>
       <c r="E27" s="13"/>
       <c r="F27" s="18"/>
@@ -1203,31 +1426,59 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="26"/>
-    </row>
-    <row r="28" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D28" s="9"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="26"/>
-    </row>
-    <row r="29" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D29" s="9"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="26"/>
-    </row>
-    <row r="30" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L27" s="18"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="20"/>
+    </row>
+    <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="30">
+        <f>SUM(I7:I25)</f>
+        <v>41</v>
+      </c>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
+    </row>
+    <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7">
+        <f>ROUND(AVERAGE(J7:J25),0)</f>
+        <v>14</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="23">
+        <f>ROUND(AVERAGE(L7:L25),0)</f>
+        <v>73</v>
+      </c>
+      <c r="M29" s="3">
+        <f>ROUND(AVERAGE(M7:M25),0)</f>
+        <v>57</v>
+      </c>
+      <c r="N29" s="24">
+        <f>ROUND(AVERAGE(N7:N25),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="31"/>
       <c r="D30" s="9"/>
       <c r="E30" s="13"/>
       <c r="F30" s="18"/>
@@ -1236,9 +1487,12 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="26"/>
-    </row>
-    <row r="31" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L30" s="18"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="20"/>
+    </row>
+    <row r="31" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="31"/>
       <c r="D31" s="9"/>
       <c r="E31" s="13"/>
       <c r="F31" s="18"/>
@@ -1247,9 +1501,12 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="26"/>
-    </row>
-    <row r="32" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L31" s="18"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="20"/>
+    </row>
+    <row r="32" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C32" s="31"/>
       <c r="D32" s="9"/>
       <c r="E32" s="13"/>
       <c r="F32" s="18"/>
@@ -1258,7 +1515,9 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="26"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/generated-tests/firebrigade/frontend/interactive/metrics.xlsx
+++ b/generated-tests/firebrigade/frontend/interactive/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\frontend\interactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A5E1D0-8991-441C-A0D0-5C53B04B7BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C0033D-BD16-48C8-8D79-51F1147EE53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="C3:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/generated-tests/firebrigade/frontend/interactive/metrics.xlsx
+++ b/generated-tests/firebrigade/frontend/interactive/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\frontend\interactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C0033D-BD16-48C8-8D79-51F1147EE53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549C8AA4-B0D3-4252-B7CA-A0F70DE9849E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Test</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Durchschnitt</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
   </si>
 </sst>
 </file>
@@ -787,13 +793,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="C3:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="14" width="15.7109375" customWidth="1"/>
@@ -1478,32 +1484,51 @@
       </c>
     </row>
     <row r="30" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C30" s="31"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="20"/>
+      <c r="C30" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30">
+        <f>MEDIAN(J7:J25)</f>
+        <v>10</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="29"/>
     </row>
     <row r="31" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C31" s="31"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="20"/>
+      <c r="C31" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30">
+        <f>ROUND(_xlfn.STDEV.P(J7:J25),1)</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27">
+        <f>ROUND(_xlfn.STDEV.P(L7:L25),1)</f>
+        <v>6.6</v>
+      </c>
+      <c r="M31" s="28">
+        <f>ROUND(_xlfn.STDEV.P(M7:M25),1)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N31" s="29">
+        <f>ROUND(_xlfn.STDEV.P(N7:N25),1)</f>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="32" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C32" s="31"/>

--- a/generated-tests/firebrigade/frontend/interactive/metrics.xlsx
+++ b/generated-tests/firebrigade/frontend/interactive/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\frontend\interactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549C8AA4-B0D3-4252-B7CA-A0F70DE9849E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC46B445-887A-4F1F-A73E-6EC4456A3DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="C3:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,9 +1498,18 @@
         <v>10</v>
       </c>
       <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="29"/>
+      <c r="L30" s="27">
+        <f>MEDIAN(L7:L25)</f>
+        <v>68.5</v>
+      </c>
+      <c r="M30" s="28">
+        <f>MEDIAN(M7:M25)</f>
+        <v>57.5</v>
+      </c>
+      <c r="N30" s="29">
+        <f>MEDIAN(N7:N25)</f>
+        <v>69</v>
+      </c>
     </row>
     <row r="31" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C31" s="32" t="s">
